--- a/experiment result cnn/2048_0.5_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/2048_0.5_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0119270784247227</v>
+        <v>0.00255074630570762</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0005806106767336826</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003091079249654681</v>
+        <v>0.0008233618860389105</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0012824409238054</v>
+        <v>0.0004405839973182558</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0113768440108131</v>
+        <v>0.002293011139479005</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009684462343531864</v>
+        <v>0.007477052174836786</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03809765810168528</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01139723359246927</v>
+        <v>0.003301193260273451</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.000999599675913e-05</v>
+        <v>0.0003606479957858162</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0006412084415611821</v>
+        <v>0.005078049494516916</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01052716244674568</v>
+        <v>0.002354324263130461</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0002200859462299597</v>
+        <v>0.0003403499988538655</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.004751348679658879</v>
+        <v>0.001711356715151403</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004094657878831271</v>
+        <v>0.02188689271750826</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0003601498732603479</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.006803437397430476</v>
+        <v>0.0004810599887547109</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006747304512054633</v>
+        <v>0.002900876457366208</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00134821705125863</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001022603025170585</v>
+        <v>0.001611298715223233</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001968166681135553</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0009839640572159706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.003597034204866929</v>
+        <v>0.00403834403915637</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05637997224258764</v>
+        <v>0.002069613304415017</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.000200125893316804</v>
+        <v>0.007726141241879159</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.005012574815929555</v>
+        <v>0.0015843218897124</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001800818453138194</v>
+        <v>0.02945651368443281</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.999999659849967e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00805196575543116</v>
+        <v>0.0002001039999037054</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01211542322197864</v>
+        <v>0.0005816819715441949</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005896472716462111</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004004142700238409</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0001601219268122093</v>
+        <v>0.06923298829427631</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03666248614011074</v>
+        <v>0.0001200719999480978</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001828546871795564</v>
+        <v>0.02096873736291324</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.001402187698958999</v>
+        <v>0.03239148321834306</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.002178088984453192</v>
+        <v>0.0005805779981927766</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05561500809465381</v>
+        <v>0.00300320076484419</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.004448229307850118</v>
+        <v>0.004016772609081591</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0007012793431530483</v>
+        <v>0.0002001999995991992</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0009016807213174978</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03509269383695116</v>
+        <v>0.008104685751088735</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0004403351115091298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001403391220936745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001042300859050221</v>
+        <v>0.0005210759887515089</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03228587705929457</v>
+        <v>0.0001600999999037854</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0003001536855949349</v>
+        <v>0.002302990643315344</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0001200199515320719</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.009426963890364353</v>
+        <v>0.0002401479998788004</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0171992776393075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.001948845412661401</v>
+        <v>0.007473532192273272</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07527778525512364</v>
+        <v>0.006161030226205801</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004779418321616017</v>
+        <v>0.0429145533677138</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02735175698073994</v>
+        <v>0.0003004499979689159</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009067843643461878</v>
+        <v>0.0001200399999891115</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06106015900049701</v>
+        <v>0.01021632795560608</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04493104128296995</v>
+        <v>0.2064068492623283</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02278140377023703</v>
+        <v>0.00513854421549944</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004153717740813604</v>
+        <v>0.1140714576938765</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04670466058504988</v>
+        <v>0.0003204519979688759</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06199802601421556</v>
+        <v>0.01407783700979215</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.006746169232221588</v>
+        <v>0.006569702162885603</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01656006931395446</v>
+        <v>0.00898403577728921</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1040678702611828</v>
+        <v>0.03262052591098559</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.08359518773898235</v>
+        <v>0.0007014419815705176</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004797844330973785</v>
+        <v>0.06976654474668596</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.001082795198857837</v>
+        <v>0.03704007026097338</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02180954494369422</v>
+        <v>0.06738225686203807</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01019812909624274</v>
+        <v>0.05243314287656126</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004835709906360482</v>
+        <v>0.09776626405066466</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001065522554501432</v>
+        <v>0.03138636612499953</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003824704967683574</v>
+        <v>0.03495210661371666</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00086266785954957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02232721404004322</v>
+        <v>0.08941729758265222</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00447468806181734</v>
+        <v>0.00140366389606372</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.009091797421381173</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03056850314218239</v>
+        <v>0.108979156071364</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001247489452691739</v>
+        <v>0.01291649701523005</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0006406360626527747</v>
+        <v>0.006796675725526291</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02212154561790048</v>
+        <v>0.002995356576776068</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.07113341585197909</v>
+        <v>0.1016344869280027</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07361894201127003</v>
+        <v>0.00362935164286883</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0862020889480424</v>
+        <v>0.001673776069893319</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003943122852825851</v>
+        <v>0.002894022619033183</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0405256586553305</v>
+        <v>0.02084407681611507</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01075229049783049</v>
+        <v>0.006133977384947429</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.000420504708316885</v>
+        <v>0.0004811519866651062</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03925558309723252</v>
+        <v>0.006935590403055974</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07028568079149396</v>
+        <v>0.01313259310823515</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001907004018112807</v>
+        <v>0.01327171304072951</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1070412195572322</v>
+        <v>0.0005412579842960395</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.009537598947873359</v>
+        <v>0.09102336945907893</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0198403132696216</v>
+        <v>0.1022296577008635</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.08902823266172463</v>
+        <v>0.02268759533623034</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.007346824000857702</v>
+        <v>0.1098427550130937</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02374357262658389</v>
+        <v>0.003791941162193309</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07855806708204129</v>
+        <v>0.1155804914330649</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.003988101474616252</v>
+        <v>0.004122662621904575</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01997019770240029</v>
+        <v>0.008461625426851761</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02242051488396382</v>
+        <v>0.07466098304977578</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.003455082636946331</v>
+        <v>0.2193989387349546</v>
       </c>
     </row>
   </sheetData>
